--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema6d-Tyrobp.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema6d-Tyrobp.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.92088766666666</v>
+        <v>53.92178866666666</v>
       </c>
       <c r="H2">
-        <v>92.76266299999999</v>
+        <v>161.765366</v>
       </c>
       <c r="I2">
-        <v>0.4394483058295039</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="J2">
-        <v>0.4394483058295038</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2278003333333333</v>
+        <v>5.608944333333334</v>
       </c>
       <c r="N2">
-        <v>0.6834009999999999</v>
+        <v>16.826833</v>
       </c>
       <c r="O2">
-        <v>0.0001064345023639502</v>
+        <v>0.002636932214636096</v>
       </c>
       <c r="P2">
-        <v>0.0001064345023639502</v>
+        <v>0.002636932214636096</v>
       </c>
       <c r="Q2">
-        <v>7.043788517429221</v>
+        <v>302.4443109850976</v>
       </c>
       <c r="R2">
-        <v>63.39409665686298</v>
+        <v>2721.998798865878</v>
       </c>
       <c r="S2">
-        <v>4.677246174564424E-05</v>
+        <v>0.00158001353138809</v>
       </c>
       <c r="T2">
-        <v>4.677246174564423E-05</v>
+        <v>0.00158001353138809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.92088766666666</v>
+        <v>53.92178866666666</v>
       </c>
       <c r="H3">
-        <v>92.76266299999999</v>
+        <v>161.765366</v>
       </c>
       <c r="I3">
-        <v>0.4394483058295039</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="J3">
-        <v>0.4394483058295038</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>590.7385459999999</v>
+        <v>575.1193953333333</v>
       </c>
       <c r="N3">
-        <v>1772.215638</v>
+        <v>1725.358186</v>
       </c>
       <c r="O3">
-        <v>0.2760090920442617</v>
+        <v>0.2703808008583372</v>
       </c>
       <c r="P3">
-        <v>0.2760090920442617</v>
+        <v>0.2703808008583373</v>
       </c>
       <c r="Q3">
-        <v>18266.16022123599</v>
+        <v>31011.46649326511</v>
       </c>
       <c r="R3">
-        <v>164395.441991124</v>
+        <v>279103.1984393861</v>
       </c>
       <c r="S3">
-        <v>0.1212917278923904</v>
+        <v>0.1620084587736272</v>
       </c>
       <c r="T3">
-        <v>0.1212917278923904</v>
+        <v>0.1620084587736272</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.92088766666666</v>
+        <v>53.92178866666666</v>
       </c>
       <c r="H4">
-        <v>92.76266299999999</v>
+        <v>161.765366</v>
       </c>
       <c r="I4">
-        <v>0.4394483058295039</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="J4">
-        <v>0.4394483058295038</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2776163333333333</v>
+        <v>0.11246</v>
       </c>
       <c r="N4">
-        <v>0.832849</v>
+        <v>0.33738</v>
       </c>
       <c r="O4">
-        <v>0.0001297098904732559</v>
+        <v>5.287080406478903E-05</v>
       </c>
       <c r="P4">
-        <v>0.0001297098904732559</v>
+        <v>5.287080406478903E-05</v>
       </c>
       <c r="Q4">
-        <v>8.584143457431887</v>
+        <v>6.064044353453333</v>
       </c>
       <c r="R4">
-        <v>77.25729111688699</v>
+        <v>54.57639918108</v>
       </c>
       <c r="S4">
-        <v>5.700079161780282E-05</v>
+        <v>3.167945894629809E-05</v>
       </c>
       <c r="T4">
-        <v>5.700079161780281E-05</v>
+        <v>3.167945894629809E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.92088766666666</v>
+        <v>53.92178866666666</v>
       </c>
       <c r="H5">
-        <v>92.76266299999999</v>
+        <v>161.765366</v>
       </c>
       <c r="I5">
-        <v>0.4394483058295039</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="J5">
-        <v>0.4394483058295038</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>908.663269</v>
+        <v>1051.990214</v>
       </c>
       <c r="N5">
-        <v>2725.989807</v>
+        <v>3155.970642</v>
       </c>
       <c r="O5">
-        <v>0.4245521568701914</v>
+        <v>0.4945720121151475</v>
       </c>
       <c r="P5">
-        <v>0.4245521568701914</v>
+        <v>0.4945720121151475</v>
       </c>
       <c r="Q5">
-        <v>28096.67486757511</v>
+        <v>56725.19399870944</v>
       </c>
       <c r="R5">
-        <v>252870.073808176</v>
+        <v>510526.745988385</v>
       </c>
       <c r="S5">
-        <v>0.1865687260728674</v>
+        <v>0.2963407504563431</v>
       </c>
       <c r="T5">
-        <v>0.1865687260728673</v>
+        <v>0.2963407504563431</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.92088766666666</v>
+        <v>53.92178866666666</v>
       </c>
       <c r="H6">
-        <v>92.76266299999999</v>
+        <v>161.765366</v>
       </c>
       <c r="I6">
-        <v>0.4394483058295039</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="J6">
-        <v>0.4394483058295038</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>640.3793133333334</v>
+        <v>494.240855</v>
       </c>
       <c r="N6">
-        <v>1921.13794</v>
+        <v>1482.722565</v>
       </c>
       <c r="O6">
-        <v>0.2992026066927096</v>
+        <v>0.2323573840078144</v>
       </c>
       <c r="P6">
-        <v>0.2992026066927096</v>
+        <v>0.2323573840078144</v>
       </c>
       <c r="Q6">
-        <v>19801.09681163713</v>
+        <v>26650.35093374264</v>
       </c>
       <c r="R6">
-        <v>178209.8713047342</v>
+        <v>239853.1584036838</v>
       </c>
       <c r="S6">
-        <v>0.1314840786108826</v>
+        <v>0.1392253501294306</v>
       </c>
       <c r="T6">
-        <v>0.1314840786108826</v>
+        <v>0.1392253501294306</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>53.476874</v>
       </c>
       <c r="I7">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="J7">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2278003333333333</v>
+        <v>5.608944333333334</v>
       </c>
       <c r="N7">
-        <v>0.6834009999999999</v>
+        <v>16.826833</v>
       </c>
       <c r="O7">
-        <v>0.0001064345023639502</v>
+        <v>0.002636932214636096</v>
       </c>
       <c r="P7">
-        <v>0.0001064345023639502</v>
+        <v>0.002636932214636096</v>
       </c>
       <c r="Q7">
-        <v>4.060683240941555</v>
+        <v>99.98293646222689</v>
       </c>
       <c r="R7">
-        <v>36.546149168474</v>
+        <v>899.846428160042</v>
       </c>
       <c r="S7">
-        <v>2.696392020830231E-05</v>
+        <v>0.0005223255547564857</v>
       </c>
       <c r="T7">
-        <v>2.696392020830231E-05</v>
+        <v>0.0005223255547564857</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>53.476874</v>
       </c>
       <c r="I8">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="J8">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>590.7385459999999</v>
+        <v>575.1193953333333</v>
       </c>
       <c r="N8">
-        <v>1772.215638</v>
+        <v>1725.358186</v>
       </c>
       <c r="O8">
-        <v>0.2760090920442617</v>
+        <v>0.2703808008583372</v>
       </c>
       <c r="P8">
-        <v>0.2760090920442617</v>
+        <v>0.2703808008583373</v>
       </c>
       <c r="Q8">
-        <v>10530.2835971284</v>
+        <v>10251.86247973228</v>
       </c>
       <c r="R8">
-        <v>94772.5523741556</v>
+        <v>92266.76231759056</v>
       </c>
       <c r="S8">
-        <v>0.06992363349620147</v>
+        <v>0.05355723632938496</v>
       </c>
       <c r="T8">
-        <v>0.06992363349620145</v>
+        <v>0.05355723632938496</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>53.476874</v>
       </c>
       <c r="I9">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="J9">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.2776163333333333</v>
+        <v>0.11246</v>
       </c>
       <c r="N9">
-        <v>0.832849</v>
+        <v>0.33738</v>
       </c>
       <c r="O9">
-        <v>0.0001297098904732559</v>
+        <v>5.287080406478903E-05</v>
       </c>
       <c r="P9">
-        <v>0.0001297098904732559</v>
+        <v>5.287080406478903E-05</v>
       </c>
       <c r="Q9">
-        <v>4.948684559336222</v>
+        <v>2.004669750013333</v>
       </c>
       <c r="R9">
-        <v>44.538161034026</v>
+        <v>18.04202775012</v>
       </c>
       <c r="S9">
-        <v>3.286046403438739E-05</v>
+        <v>1.047268940410493E-05</v>
       </c>
       <c r="T9">
-        <v>3.286046403438738E-05</v>
+        <v>1.047268940410493E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>53.476874</v>
       </c>
       <c r="I10">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="J10">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>908.663269</v>
+        <v>1051.990214</v>
       </c>
       <c r="N10">
-        <v>2725.989807</v>
+        <v>3155.970642</v>
       </c>
       <c r="O10">
-        <v>0.4245521568701914</v>
+        <v>0.4945720121151475</v>
       </c>
       <c r="P10">
-        <v>0.4245521568701914</v>
+        <v>0.4945720121151475</v>
       </c>
       <c r="Q10">
-        <v>16197.49038158037</v>
+        <v>18752.38270777035</v>
       </c>
       <c r="R10">
-        <v>145777.4134342233</v>
+        <v>168771.4443699331</v>
       </c>
       <c r="S10">
-        <v>0.1075552591298424</v>
+        <v>0.09796520333789682</v>
       </c>
       <c r="T10">
-        <v>0.1075552591298424</v>
+        <v>0.09796520333789684</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>53.476874</v>
       </c>
       <c r="I11">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="J11">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>640.3793133333334</v>
+        <v>494.240855</v>
       </c>
       <c r="N11">
-        <v>1921.13794</v>
+        <v>1482.722565</v>
       </c>
       <c r="O11">
-        <v>0.2992026066927096</v>
+        <v>0.2323573840078144</v>
       </c>
       <c r="P11">
-        <v>0.2992026066927096</v>
+        <v>0.2323573840078144</v>
       </c>
       <c r="Q11">
-        <v>11415.16128377773</v>
+        <v>8810.151976162424</v>
       </c>
       <c r="R11">
-        <v>102736.4515539995</v>
+        <v>79291.36778546181</v>
       </c>
       <c r="S11">
-        <v>0.07579943565096085</v>
+        <v>0.04602552876786644</v>
       </c>
       <c r="T11">
-        <v>0.07579943565096081</v>
+        <v>0.04602552876786645</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.3620696666666667</v>
+        <v>0.02821033333333333</v>
       </c>
       <c r="H12">
-        <v>1.086209</v>
+        <v>0.084631</v>
       </c>
       <c r="I12">
-        <v>0.005145741717513648</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="J12">
-        <v>0.005145741717513646</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.2278003333333333</v>
+        <v>5.608944333333334</v>
       </c>
       <c r="N12">
-        <v>0.6834009999999999</v>
+        <v>16.826833</v>
       </c>
       <c r="O12">
-        <v>0.0001064345023639502</v>
+        <v>0.002636932214636096</v>
       </c>
       <c r="P12">
-        <v>0.0001064345023639502</v>
+        <v>0.002636932214636096</v>
       </c>
       <c r="Q12">
-        <v>0.08247959075655555</v>
+        <v>0.1582301892914444</v>
       </c>
       <c r="R12">
-        <v>0.7423163168089999</v>
+        <v>1.424071703623</v>
       </c>
       <c r="S12">
-        <v>5.476844589969835E-07</v>
+        <v>8.266177642432155E-07</v>
       </c>
       <c r="T12">
-        <v>5.476844589969833E-07</v>
+        <v>8.266177642432155E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.3620696666666667</v>
+        <v>0.02821033333333333</v>
       </c>
       <c r="H13">
-        <v>1.086209</v>
+        <v>0.084631</v>
       </c>
       <c r="I13">
-        <v>0.005145741717513648</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="J13">
-        <v>0.005145741717513646</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>590.7385459999999</v>
+        <v>575.1193953333333</v>
       </c>
       <c r="N13">
-        <v>1772.215638</v>
+        <v>1725.358186</v>
       </c>
       <c r="O13">
-        <v>0.2760090920442617</v>
+        <v>0.2703808008583372</v>
       </c>
       <c r="P13">
-        <v>0.2760090920442617</v>
+        <v>0.2703808008583373</v>
       </c>
       <c r="Q13">
-        <v>213.8885084373713</v>
+        <v>16.22430984881844</v>
       </c>
       <c r="R13">
-        <v>1924.996575936342</v>
+        <v>146.018788639366</v>
       </c>
       <c r="S13">
-        <v>0.001420271499345222</v>
+        <v>8.475817916717006E-05</v>
       </c>
       <c r="T13">
-        <v>0.001420271499345221</v>
+        <v>8.475817916717008E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>23</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3620696666666667</v>
+        <v>0.02821033333333333</v>
       </c>
       <c r="H14">
-        <v>1.086209</v>
+        <v>0.084631</v>
       </c>
       <c r="I14">
-        <v>0.005145741717513648</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="J14">
-        <v>0.005145741717513646</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.2776163333333333</v>
+        <v>0.11246</v>
       </c>
       <c r="N14">
-        <v>0.832849</v>
+        <v>0.33738</v>
       </c>
       <c r="O14">
-        <v>0.0001297098904732559</v>
+        <v>5.287080406478903E-05</v>
       </c>
       <c r="P14">
-        <v>0.0001297098904732559</v>
+        <v>5.287080406478903E-05</v>
       </c>
       <c r="Q14">
-        <v>0.1005164532712222</v>
+        <v>0.003172534086666667</v>
       </c>
       <c r="R14">
-        <v>0.9046480794409999</v>
+        <v>0.02855280678</v>
       </c>
       <c r="S14">
-        <v>6.674535945823591E-07</v>
+        <v>1.65737843419719E-08</v>
       </c>
       <c r="T14">
-        <v>6.674535945823588E-07</v>
+        <v>1.65737843419719E-08</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3620696666666667</v>
+        <v>0.02821033333333333</v>
       </c>
       <c r="H15">
-        <v>1.086209</v>
+        <v>0.084631</v>
       </c>
       <c r="I15">
-        <v>0.005145741717513648</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="J15">
-        <v>0.005145741717513646</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>908.663269</v>
+        <v>1051.990214</v>
       </c>
       <c r="N15">
-        <v>2725.989807</v>
+        <v>3155.970642</v>
       </c>
       <c r="O15">
-        <v>0.4245521568701914</v>
+        <v>0.4945720121151475</v>
       </c>
       <c r="P15">
-        <v>0.4245521568701914</v>
+        <v>0.4945720121151475</v>
       </c>
       <c r="Q15">
-        <v>328.9994069190737</v>
+        <v>29.67699460034467</v>
       </c>
       <c r="R15">
-        <v>2960.994662271663</v>
+        <v>267.092951403102</v>
       </c>
       <c r="S15">
-        <v>0.002184635744867343</v>
+        <v>0.0001550369814751989</v>
       </c>
       <c r="T15">
-        <v>0.002184635744867342</v>
+        <v>0.0001550369814751989</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3620696666666667</v>
+        <v>0.02821033333333333</v>
       </c>
       <c r="H16">
-        <v>1.086209</v>
+        <v>0.084631</v>
       </c>
       <c r="I16">
-        <v>0.005145741717513648</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="J16">
-        <v>0.005145741717513646</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>640.3793133333334</v>
+        <v>494.240855</v>
       </c>
       <c r="N16">
-        <v>1921.13794</v>
+        <v>1482.722565</v>
       </c>
       <c r="O16">
-        <v>0.2992026066927096</v>
+        <v>0.2323573840078144</v>
       </c>
       <c r="P16">
-        <v>0.2992026066927096</v>
+        <v>0.2323573840078144</v>
       </c>
       <c r="Q16">
-        <v>231.8619245188289</v>
+        <v>13.94269926650167</v>
       </c>
       <c r="R16">
-        <v>2086.75732066946</v>
+        <v>125.484293398515</v>
       </c>
       <c r="S16">
-        <v>0.001539619335247504</v>
+        <v>7.283871015260363E-05</v>
       </c>
       <c r="T16">
-        <v>0.001539619335247503</v>
+        <v>7.283871015260363E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.32321033333333</v>
+        <v>17.93198166666667</v>
       </c>
       <c r="H17">
-        <v>60.96963099999999</v>
+        <v>53.795945</v>
       </c>
       <c r="I17">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="J17">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.2278003333333333</v>
+        <v>5.608944333333334</v>
       </c>
       <c r="N17">
-        <v>0.6834009999999999</v>
+        <v>16.826833</v>
       </c>
       <c r="O17">
-        <v>0.0001064345023639502</v>
+        <v>0.002636932214636096</v>
       </c>
       <c r="P17">
-        <v>0.0001064345023639502</v>
+        <v>0.002636932214636096</v>
       </c>
       <c r="Q17">
-        <v>4.629634088336776</v>
+        <v>100.5794869546872</v>
       </c>
       <c r="R17">
-        <v>41.66670679503099</v>
+        <v>905.2153825921851</v>
       </c>
       <c r="S17">
-        <v>3.074189163363654E-05</v>
+        <v>0.000525442022205232</v>
       </c>
       <c r="T17">
-        <v>3.074189163363653E-05</v>
+        <v>0.000525442022205232</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.32321033333333</v>
+        <v>17.93198166666667</v>
       </c>
       <c r="H18">
-        <v>60.96963099999999</v>
+        <v>53.795945</v>
       </c>
       <c r="I18">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="J18">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>590.7385459999999</v>
+        <v>575.1193953333333</v>
       </c>
       <c r="N18">
-        <v>1772.215638</v>
+        <v>1725.358186</v>
       </c>
       <c r="O18">
-        <v>0.2760090920442617</v>
+        <v>0.2703808008583372</v>
       </c>
       <c r="P18">
-        <v>0.2760090920442617</v>
+        <v>0.2703808008583373</v>
       </c>
       <c r="Q18">
-        <v>12005.70372236551</v>
+        <v>10313.03045326175</v>
       </c>
       <c r="R18">
-        <v>108051.3335012896</v>
+        <v>92817.27407935578</v>
       </c>
       <c r="S18">
-        <v>0.079720780471249</v>
+        <v>0.05387678681307354</v>
       </c>
       <c r="T18">
-        <v>0.07972078047124899</v>
+        <v>0.05387678681307354</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.32321033333333</v>
+        <v>17.93198166666667</v>
       </c>
       <c r="H19">
-        <v>60.96963099999999</v>
+        <v>53.795945</v>
       </c>
       <c r="I19">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="J19">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.2776163333333333</v>
+        <v>0.11246</v>
       </c>
       <c r="N19">
-        <v>0.832849</v>
+        <v>0.33738</v>
       </c>
       <c r="O19">
-        <v>0.0001297098904732559</v>
+        <v>5.287080406478903E-05</v>
       </c>
       <c r="P19">
-        <v>0.0001297098904732559</v>
+        <v>5.287080406478903E-05</v>
       </c>
       <c r="Q19">
-        <v>5.64205513430211</v>
+        <v>2.016630658233334</v>
       </c>
       <c r="R19">
-        <v>50.77849620871899</v>
+        <v>18.1496759241</v>
       </c>
       <c r="S19">
-        <v>3.746461258497216E-05</v>
+        <v>1.05351749465631E-05</v>
       </c>
       <c r="T19">
-        <v>3.746461258497215E-05</v>
+        <v>1.05351749465631E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.32321033333333</v>
+        <v>17.93198166666667</v>
       </c>
       <c r="H20">
-        <v>60.96963099999999</v>
+        <v>53.795945</v>
       </c>
       <c r="I20">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="J20">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>908.663269</v>
+        <v>1051.990214</v>
       </c>
       <c r="N20">
-        <v>2725.989807</v>
+        <v>3155.970642</v>
       </c>
       <c r="O20">
-        <v>0.4245521568701914</v>
+        <v>0.4945720121151475</v>
       </c>
       <c r="P20">
-        <v>0.4245521568701914</v>
+        <v>0.4945720121151475</v>
       </c>
       <c r="Q20">
-        <v>18466.95473806125</v>
+        <v>18864.26923096075</v>
       </c>
       <c r="R20">
-        <v>166202.5926425512</v>
+        <v>169778.4230786467</v>
       </c>
       <c r="S20">
-        <v>0.1226250521160955</v>
+        <v>0.09854971497921353</v>
       </c>
       <c r="T20">
-        <v>0.1226250521160955</v>
+        <v>0.09854971497921353</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.32321033333333</v>
+        <v>17.93198166666667</v>
       </c>
       <c r="H21">
-        <v>60.96963099999999</v>
+        <v>53.795945</v>
       </c>
       <c r="I21">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="J21">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>640.3793133333334</v>
+        <v>494.240855</v>
       </c>
       <c r="N21">
-        <v>1921.13794</v>
+        <v>1482.722565</v>
       </c>
       <c r="O21">
-        <v>0.2992026066927096</v>
+        <v>0.2323573840078144</v>
       </c>
       <c r="P21">
-        <v>0.2992026066927096</v>
+        <v>0.2323573840078144</v>
       </c>
       <c r="Q21">
-        <v>13014.5634779889</v>
+        <v>8862.71795077766</v>
       </c>
       <c r="R21">
-        <v>117131.0713019001</v>
+        <v>79764.46155699893</v>
       </c>
       <c r="S21">
-        <v>0.08641985359217758</v>
+        <v>0.04630014114497532</v>
       </c>
       <c r="T21">
-        <v>0.08641985359217755</v>
+        <v>0.04630014114497533</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1402096666666666</v>
+        <v>0.1933533333333333</v>
       </c>
       <c r="H22">
-        <v>0.420629</v>
+        <v>0.58006</v>
       </c>
       <c r="I22">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="J22">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.2278003333333333</v>
+        <v>5.608944333333334</v>
       </c>
       <c r="N22">
-        <v>0.6834009999999999</v>
+        <v>16.826833</v>
       </c>
       <c r="O22">
-        <v>0.0001064345023639502</v>
+        <v>0.002636932214636096</v>
       </c>
       <c r="P22">
-        <v>0.0001064345023639502</v>
+        <v>0.002636932214636096</v>
       </c>
       <c r="Q22">
-        <v>0.03193980880322221</v>
+        <v>1.084508083331111</v>
       </c>
       <c r="R22">
-        <v>0.287458279229</v>
+        <v>9.760572749980001</v>
       </c>
       <c r="S22">
-        <v>2.120880662040566E-07</v>
+        <v>5.665629619488362E-06</v>
       </c>
       <c r="T22">
-        <v>2.120880662040566E-07</v>
+        <v>5.665629619488362E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1402096666666666</v>
+        <v>0.1933533333333333</v>
       </c>
       <c r="H23">
-        <v>0.420629</v>
+        <v>0.58006</v>
       </c>
       <c r="I23">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="J23">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>590.7385459999999</v>
+        <v>575.1193953333333</v>
       </c>
       <c r="N23">
-        <v>1772.215638</v>
+        <v>1725.358186</v>
       </c>
       <c r="O23">
-        <v>0.2760090920442617</v>
+        <v>0.2703808008583372</v>
       </c>
       <c r="P23">
-        <v>0.2760090920442617</v>
+        <v>0.2703808008583373</v>
       </c>
       <c r="Q23">
-        <v>82.82725462181131</v>
+        <v>111.2012521523511</v>
       </c>
       <c r="R23">
-        <v>745.4452915963019</v>
+        <v>1000.81126937116</v>
       </c>
       <c r="S23">
-        <v>0.0005499930312656968</v>
+        <v>0.0005809316846983809</v>
       </c>
       <c r="T23">
-        <v>0.0005499930312656967</v>
+        <v>0.0005809316846983809</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1402096666666666</v>
+        <v>0.1933533333333333</v>
       </c>
       <c r="H24">
-        <v>0.420629</v>
+        <v>0.58006</v>
       </c>
       <c r="I24">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="J24">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,28 +1925,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.2776163333333333</v>
+        <v>0.11246</v>
       </c>
       <c r="N24">
-        <v>0.832849</v>
+        <v>0.33738</v>
       </c>
       <c r="O24">
-        <v>0.0001297098904732559</v>
+        <v>5.287080406478903E-05</v>
       </c>
       <c r="P24">
-        <v>0.0001297098904732559</v>
+        <v>5.287080406478903E-05</v>
       </c>
       <c r="Q24">
-        <v>0.03892449355788888</v>
+        <v>0.02174451586666667</v>
       </c>
       <c r="R24">
-        <v>0.3503204420209999</v>
+        <v>0.1957006428</v>
       </c>
       <c r="S24">
-        <v>2.584680646501576E-07</v>
+        <v>1.135965467193371E-07</v>
       </c>
       <c r="T24">
-        <v>2.584680646501576E-07</v>
+        <v>1.135965467193371E-07</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1402096666666666</v>
+        <v>0.1933533333333333</v>
       </c>
       <c r="H25">
-        <v>0.420629</v>
+        <v>0.58006</v>
       </c>
       <c r="I25">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="J25">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>908.663269</v>
+        <v>1051.990214</v>
       </c>
       <c r="N25">
-        <v>2725.989807</v>
+        <v>3155.970642</v>
       </c>
       <c r="O25">
-        <v>0.4245521568701914</v>
+        <v>0.4945720121151475</v>
       </c>
       <c r="P25">
-        <v>0.4245521568701914</v>
+        <v>0.4945720121151475</v>
       </c>
       <c r="Q25">
-        <v>127.4033740587336</v>
+        <v>203.4058145109467</v>
       </c>
       <c r="R25">
-        <v>1146.630366528603</v>
+        <v>1830.65233059852</v>
       </c>
       <c r="S25">
-        <v>0.0008459892605638559</v>
+        <v>0.001062621869935412</v>
       </c>
       <c r="T25">
-        <v>0.0008459892605638555</v>
+        <v>0.001062621869935412</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1402096666666666</v>
+        <v>0.1933533333333333</v>
       </c>
       <c r="H26">
-        <v>0.420629</v>
+        <v>0.58006</v>
       </c>
       <c r="I26">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="J26">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>640.3793133333334</v>
+        <v>494.240855</v>
       </c>
       <c r="N26">
-        <v>1921.13794</v>
+        <v>1482.722565</v>
       </c>
       <c r="O26">
-        <v>0.2992026066927096</v>
+        <v>0.2323573840078144</v>
       </c>
       <c r="P26">
-        <v>0.2992026066927096</v>
+        <v>0.2323573840078144</v>
       </c>
       <c r="Q26">
-        <v>89.78737006269554</v>
+        <v>95.56311678376667</v>
       </c>
       <c r="R26">
-        <v>808.08633056426</v>
+        <v>860.0680510539</v>
       </c>
       <c r="S26">
-        <v>0.0005962098835176493</v>
+        <v>0.000499235767167105</v>
       </c>
       <c r="T26">
-        <v>0.0005962098835176491</v>
+        <v>0.000499235767167105</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>20</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.7909673333333332</v>
+        <v>0.09074</v>
       </c>
       <c r="H27">
-        <v>2.372902</v>
+        <v>0.27222</v>
       </c>
       <c r="I27">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="J27">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2111,28 +2111,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>0.2278003333333333</v>
+        <v>5.608944333333334</v>
       </c>
       <c r="N27">
-        <v>0.6834009999999999</v>
+        <v>16.826833</v>
       </c>
       <c r="O27">
-        <v>0.0001064345023639502</v>
+        <v>0.002636932214636096</v>
       </c>
       <c r="P27">
-        <v>0.0001064345023639502</v>
+        <v>0.002636932214636096</v>
       </c>
       <c r="Q27">
-        <v>0.1801826221891111</v>
+        <v>0.5089556088066667</v>
       </c>
       <c r="R27">
-        <v>1.621643599702</v>
+        <v>4.58060047926</v>
       </c>
       <c r="S27">
-        <v>1.196456251166083E-06</v>
+        <v>2.658858902556842E-06</v>
       </c>
       <c r="T27">
-        <v>1.196456251166083E-06</v>
+        <v>2.658858902556842E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.7909673333333332</v>
+        <v>0.09074</v>
       </c>
       <c r="H28">
-        <v>2.372902</v>
+        <v>0.27222</v>
       </c>
       <c r="I28">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="J28">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>590.7385459999999</v>
+        <v>575.1193953333333</v>
       </c>
       <c r="N28">
-        <v>1772.215638</v>
+        <v>1725.358186</v>
       </c>
       <c r="O28">
-        <v>0.2760090920442617</v>
+        <v>0.2703808008583372</v>
       </c>
       <c r="P28">
-        <v>0.2760090920442617</v>
+        <v>0.2703808008583373</v>
       </c>
       <c r="Q28">
-        <v>467.2548924268306</v>
+        <v>52.18633393254666</v>
       </c>
       <c r="R28">
-        <v>4205.294031841476</v>
+        <v>469.67700539292</v>
       </c>
       <c r="S28">
-        <v>0.003102685653809971</v>
+        <v>0.0002726290783860173</v>
       </c>
       <c r="T28">
-        <v>0.003102685653809971</v>
+        <v>0.0002726290783860174</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.7909673333333332</v>
+        <v>0.09074</v>
       </c>
       <c r="H29">
-        <v>2.372902</v>
+        <v>0.27222</v>
       </c>
       <c r="I29">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="J29">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2235,28 +2235,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>0.2776163333333333</v>
+        <v>0.11246</v>
       </c>
       <c r="N29">
-        <v>0.832849</v>
+        <v>0.33738</v>
       </c>
       <c r="O29">
-        <v>0.0001297098904732559</v>
+        <v>5.287080406478903E-05</v>
       </c>
       <c r="P29">
-        <v>0.0001297098904732559</v>
+        <v>5.287080406478903E-05</v>
       </c>
       <c r="Q29">
-        <v>0.2195854508664444</v>
+        <v>0.0102046204</v>
       </c>
       <c r="R29">
-        <v>1.976269057798</v>
+        <v>0.09184158360000001</v>
       </c>
       <c r="S29">
-        <v>1.458100576861054E-06</v>
+        <v>5.331043676160733E-08</v>
       </c>
       <c r="T29">
-        <v>1.458100576861054E-06</v>
+        <v>5.331043676160734E-08</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.7909673333333332</v>
+        <v>0.09074</v>
       </c>
       <c r="H30">
-        <v>2.372902</v>
+        <v>0.27222</v>
       </c>
       <c r="I30">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="J30">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>908.663269</v>
+        <v>1051.990214</v>
       </c>
       <c r="N30">
-        <v>2725.989807</v>
+        <v>3155.970642</v>
       </c>
       <c r="O30">
-        <v>0.4245521568701914</v>
+        <v>0.4945720121151475</v>
       </c>
       <c r="P30">
-        <v>0.4245521568701914</v>
+        <v>0.4945720121151475</v>
       </c>
       <c r="Q30">
-        <v>718.7229627788793</v>
+        <v>95.45759201836002</v>
       </c>
       <c r="R30">
-        <v>6468.506665009913</v>
+        <v>859.1183281652401</v>
       </c>
       <c r="S30">
-        <v>0.004772494545954974</v>
+        <v>0.0004986844902834498</v>
       </c>
       <c r="T30">
-        <v>0.004772494545954973</v>
+        <v>0.0004986844902834499</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.7909673333333332</v>
+        <v>0.09074</v>
       </c>
       <c r="H31">
-        <v>2.372902</v>
+        <v>0.27222</v>
       </c>
       <c r="I31">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="J31">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>640.3793133333334</v>
+        <v>494.240855</v>
       </c>
       <c r="N31">
-        <v>1921.13794</v>
+        <v>1482.722565</v>
       </c>
       <c r="O31">
-        <v>0.2992026066927096</v>
+        <v>0.2323573840078144</v>
       </c>
       <c r="P31">
-        <v>0.2992026066927096</v>
+        <v>0.2323573840078144</v>
       </c>
       <c r="Q31">
-        <v>506.5191177890977</v>
+        <v>44.8474151827</v>
       </c>
       <c r="R31">
-        <v>4558.67206010188</v>
+        <v>403.6267366443</v>
       </c>
       <c r="S31">
-        <v>0.003363409619923489</v>
+        <v>0.0002342894882223034</v>
       </c>
       <c r="T31">
-        <v>0.003363409619923488</v>
+        <v>0.0002342894882223034</v>
       </c>
     </row>
   </sheetData>
